--- a/weather_ui/设计稿/andorid/元素详情/元素详情对应表.xlsx
+++ b/weather_ui/设计稿/andorid/元素详情/元素详情对应表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="75">
   <si>
     <t>污染</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -485,12 +485,16 @@
     <t>http://r.m.taobao.com/s?p=mm_22983941_4132289_13398008&amp;q=去油</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>湿度 XX%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -554,6 +558,22 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -601,7 +621,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -636,6 +656,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -942,8 +968,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:E28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D20" activeCellId="2" sqref="B27 B28 D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1223,8 +1249,8 @@
       <c r="C20" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>51</v>
+      <c r="D20" s="13" t="s">
+        <v>7</v>
       </c>
       <c r="E20" s="5" t="s">
         <v>52</v>
@@ -1316,8 +1342,8 @@
       <c r="A27" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="B27" s="3" t="s">
-        <v>67</v>
+      <c r="B27" s="12" t="s">
+        <v>74</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>68</v>
@@ -1333,8 +1359,8 @@
       <c r="A28" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="B28" s="3" t="s">
-        <v>71</v>
+      <c r="B28" s="13" t="s">
+        <v>74</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>72</v>
@@ -1360,6 +1386,7 @@
     <hyperlink ref="E28" r:id="rId9"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId10"/>
 </worksheet>
 </file>
 
